--- a/out.xlsx
+++ b/out.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="632">
   <si>
     <t>type</t>
   </si>
@@ -152,6 +152,9 @@
     <t>A bill to designate the facility of the United States Postal Service located at 5302 Galveston Road in Houston, Texas, as the "Vanessa Guillen Post Office Building".</t>
   </si>
   <si>
+    <t>Justice for Victims of War Crimes Act</t>
+  </si>
+  <si>
     <t>Childhood Cancer STAR Reauthorization Act</t>
   </si>
   <si>
@@ -182,9 +185,21 @@
     <t>Equal Pay for Team USA Act of 2022</t>
   </si>
   <si>
+    <t>National Heritage Area Act</t>
+  </si>
+  <si>
     <t>Martha Wright-Reed Just and Reasonable Communications Act of 2022</t>
   </si>
   <si>
+    <t>Durbin Feeling Native American Languages Act of 2022</t>
+  </si>
+  <si>
+    <t>Protecting American Intellectual Property Act of 2022</t>
+  </si>
+  <si>
+    <t>Native American Language Resource Center Act of 2022</t>
+  </si>
+  <si>
     <t>Emmett Till and Mamie Till-Mobley Congressional Gold Medal Act of 2021</t>
   </si>
   <si>
@@ -219,6 +234,9 @@
   </si>
   <si>
     <t xml:space="preserve">DHS Continues to Prepare for End of Title 42; Announces New Border Enforcement Measures and Additional Safe and Orderly Processes </t>
+  </si>
+  <si>
+    <t>HUD Closes Rental Assistance Demonstration (RAD) Conversion in Boston, MA, to Preserve 445 Affordable Rental Homes</t>
   </si>
   <si>
     <t>Dr. Kimberly A. McClain Sworn in as Assistant Secretary for Congressional and Intergovernmental Relations</t>
@@ -300,6 +318,9 @@
     <t xml:space="preserve">Treasury Sanctions Suppliers of Iranian UAVs Used to  Target Ukraine’s Civilian Infrastructure </t>
   </si>
   <si>
+    <t>#VeteranOfTheDay Navy Veteran John Coltrane</t>
+  </si>
+  <si>
     <t>Veteran Jennifer Higginbotham finds hope and purpose in Million Veteran program</t>
   </si>
   <si>
@@ -411,40 +432,55 @@
     <t>https://www.congress.gov/bill/117th-congress/senate-bill/4411?s=1&amp;r=17</t>
   </si>
   <si>
-    <t>https://www.congress.gov/bill/117th-congress/senate-bill/4120?s=1&amp;r=18</t>
-  </si>
-  <si>
-    <t>https://www.congress.gov/bill/117th-congress/senate-bill/4104?s=1&amp;r=19</t>
-  </si>
-  <si>
-    <t>https://www.congress.gov/bill/117th-congress/senate-bill/3949?s=1&amp;r=20</t>
-  </si>
-  <si>
-    <t>https://www.congress.gov/bill/117th-congress/senate-bill/3946?s=1&amp;r=21</t>
-  </si>
-  <si>
-    <t>https://www.congress.gov/bill/117th-congress/senate-bill/3519?s=1&amp;r=22</t>
-  </si>
-  <si>
-    <t>https://www.congress.gov/bill/117th-congress/senate-bill/3405?s=1&amp;r=23</t>
-  </si>
-  <si>
-    <t>https://www.congress.gov/bill/117th-congress/senate-bill/3308?s=1&amp;r=24</t>
-  </si>
-  <si>
-    <t>https://www.congress.gov/bill/117th-congress/senate-bill/3168?s=1&amp;r=25</t>
-  </si>
-  <si>
-    <t>https://www.congress.gov/bill/117th-congress/senate-bill/2834?s=1&amp;r=26</t>
-  </si>
-  <si>
-    <t>https://www.congress.gov/bill/117th-congress/senate-bill/2333?s=1&amp;r=27</t>
-  </si>
-  <si>
-    <t>https://www.congress.gov/bill/117th-congress/senate-bill/1541?s=1&amp;r=28</t>
-  </si>
-  <si>
-    <t>https://www.congress.gov/bill/117th-congress/senate-bill/450?s=1&amp;r=29</t>
+    <t>https://www.congress.gov/bill/117th-congress/senate-bill/4240?s=1&amp;r=18</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/bill/117th-congress/senate-bill/4120?s=1&amp;r=19</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/bill/117th-congress/senate-bill/4104?s=1&amp;r=20</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/bill/117th-congress/senate-bill/3949?s=1&amp;r=21</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/bill/117th-congress/senate-bill/3946?s=1&amp;r=22</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/bill/117th-congress/senate-bill/3519?s=1&amp;r=23</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/bill/117th-congress/senate-bill/3405?s=1&amp;r=24</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/bill/117th-congress/senate-bill/3308?s=1&amp;r=25</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/bill/117th-congress/senate-bill/3168?s=1&amp;r=26</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/bill/117th-congress/senate-bill/2834?s=1&amp;r=27</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/bill/117th-congress/senate-bill/2333?s=1&amp;r=28</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/bill/117th-congress/senate-bill/1942?s=1&amp;r=29</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/bill/117th-congress/senate-bill/1541?s=1&amp;r=30</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/bill/117th-congress/senate-bill/1402?s=1&amp;r=31</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/bill/117th-congress/senate-bill/1294?s=1&amp;r=32</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/bill/117th-congress/senate-bill/989?s=1&amp;r=33</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/bill/117th-congress/senate-bill/450?s=1&amp;r=34</t>
   </si>
   <si>
     <t>https://www.defense.gov/News/Advisories/Advisory/Article/3260895/on-camera-press-briefing/</t>
@@ -478,6 +514,9 @@
   </si>
   <si>
     <t>https://www.dhs.gov/news/2023/01/05/dhs-continues-prepare-end-title-42-announces-new-border-enforcement-measures-and</t>
+  </si>
+  <si>
+    <t>https://www.hud.gov/press/press_releases_media_advisories/HUD_No_23_003</t>
   </si>
   <si>
     <t>https://www.hud.gov/press/press_releases_media_advisories/HUD_No_23_002</t>
@@ -570,6 +609,9 @@
   </si>
   <si>
     <t>https://home.treasury.gov/news/press-releases/jy1181</t>
+  </si>
+  <si>
+    <t>https://news.va.gov/114363/veteranoftheday-navy-john-coltrane/</t>
   </si>
   <si>
     <t>https://news.va.gov/114307/veteran-jennifer-higginbotham-finds-hope-and-purpose-in-million-veteran-program/</t>
@@ -689,16 +731,16 @@
     <t>01/05/2023</t>
   </si>
   <si>
-    <t>38 min ago</t>
-  </si>
-  <si>
-    <t>15 hours ago</t>
-  </si>
-  <si>
-    <t>18 hours ago</t>
-  </si>
-  <si>
-    <t>21 hours ago</t>
+    <t>2 hours ago</t>
+  </si>
+  <si>
+    <t>16 hours ago</t>
+  </si>
+  <si>
+    <t>20 hours ago</t>
+  </si>
+  <si>
+    <t>23 hours ago</t>
   </si>
   <si>
     <t>December 28, 2022</t>
@@ -710,15 +752,15 @@
     <t>2023-01-05</t>
   </si>
   <si>
+    <t>January 6, 2023</t>
+  </si>
+  <si>
     <t>1/5/2023</t>
   </si>
   <si>
     <t>idate</t>
   </si>
   <si>
-    <t>January 6, 2023</t>
-  </si>
-  <si>
     <t>January 6th, 2023</t>
   </si>
   <si>
@@ -740,18 +782,126 @@
     <t>Headline</t>
   </si>
   <si>
+    <t>AP Politics</t>
+  </si>
+  <si>
+    <t>AP US</t>
+  </si>
+  <si>
+    <t>AP World</t>
+  </si>
+  <si>
+    <t>NYT Selenium</t>
+  </si>
+  <si>
     <t>Politico</t>
   </si>
   <si>
-    <t>Reuters Biz</t>
-  </si>
-  <si>
-    <t>Reuters Tech</t>
+    <t>Reuters Breaking</t>
+  </si>
+  <si>
+    <t>Reuters Legal</t>
   </si>
   <si>
     <t>Reuters World</t>
   </si>
   <si>
+    <t>Speaker fight, Day 4: McCarthy sees progress, no deal yet</t>
+  </si>
+  <si>
+    <t>2 years after Jan. 6, speaker scrap freezes Congress again</t>
+  </si>
+  <si>
+    <t>EPA moves to toughen standards for deadly soot pollution</t>
+  </si>
+  <si>
+    <t>South Carolina US House district ruled racial gerrymander</t>
+  </si>
+  <si>
+    <t>California’s Newsom to launch 2nd term with contrast to GOP</t>
+  </si>
+  <si>
+    <t>Biden toughens border, offers legal path for 30,000 a month</t>
+  </si>
+  <si>
+    <t>Ex-lawmaker’s final vote questioned after move from Vegas</t>
+  </si>
+  <si>
+    <t>3 GOP Indiana governor hopefuls all have millions in bank</t>
+  </si>
+  <si>
+    <t>Cubans crossing into US stunned to hear of new asylum limits</t>
+  </si>
+  <si>
+    <t>Democratic officials’ homes, offices shot up in New Mexico</t>
+  </si>
+  <si>
+    <t>‘Real Housewives of Salt Lake City’ member gets 6 1/2 years</t>
+  </si>
+  <si>
+    <t>Border bishop takes lead role in Catholic migrant ministry</t>
+  </si>
+  <si>
+    <t>As speaker bid falters, mixed views of McCarthy in hometown</t>
+  </si>
+  <si>
+    <t>Warning about aquifer’s decline sets up big fight in Kansas</t>
+  </si>
+  <si>
+    <t>Alex Jones lawyer suspended 6 months over records release</t>
+  </si>
+  <si>
+    <t>Mexico gives account of violence after ‘Chapo’ son nabbed</t>
+  </si>
+  <si>
+    <t>China seeks to minimize COVID-19 risk during travel rush</t>
+  </si>
+  <si>
+    <t>EXPLAINER: Is China sharing enough COVID-19 information?</t>
+  </si>
+  <si>
+    <t>Prince Harry’s book exposes grief, war, drugs, family rifts</t>
+  </si>
+  <si>
+    <t>Kremlin-ordered truce is uncertain amid mutual mistrust</t>
+  </si>
+  <si>
+    <t>Harry’s claim he killed 25 in Afghanistan draws anger, worry</t>
+  </si>
+  <si>
+    <t>South Sudan union says journalists detained over viral video</t>
+  </si>
+  <si>
+    <t>Romania seizes more cars in Tate case; court next week</t>
+  </si>
+  <si>
+    <t>No Deal Yet on Speaker, McCarthy Tells G.O.P.; House Votes for 12th Time</t>
+  </si>
+  <si>
+    <t>Analysis: Kevin McCarthy is letting the far right disrupt the House — and hold him hostage to their demands.</t>
+  </si>
+  <si>
+    <t>We’re tracking every lawmaker’s vote here.</t>
+  </si>
+  <si>
+    <t>Miami Democrats face internal feud after disastrous 2022 midterms</t>
+  </si>
+  <si>
+    <t>Decision day for lecanemab</t>
+  </si>
+  <si>
+    <t>Disasters are a disability issue</t>
+  </si>
+  <si>
+    <t>A Capitol window smasher and a Pelosi desk squatter go to trial</t>
+  </si>
+  <si>
+    <t>FDA advisers to discuss over-the-counter overdose reversal drug</t>
+  </si>
+  <si>
+    <t>Families read names of fallen Jan. 6 officers on 2-year anniversary of Capitol riot</t>
+  </si>
+  <si>
     <t>Two takes on the transformation of Elise Stefanik</t>
   </si>
   <si>
@@ -767,9 +917,6 @@
     <t>EPA releases text of particulate matter proposal</t>
   </si>
   <si>
-    <t>FDA advisers to discuss over-the-counter overdose reversal drug</t>
-  </si>
-  <si>
     <t>Covid cases, hospitalizations spike as new variant gains foothold</t>
   </si>
   <si>
@@ -788,168 +935,345 @@
     <t>3 amigos, 11 ballots, nothing spared</t>
   </si>
   <si>
-    <t>U.S. hiring stays brisk as employers add 223,000 jobs</t>
-  </si>
-  <si>
-    <t>New letters shed light on death in Alzheimer’s drug trial</t>
-  </si>
-  <si>
-    <t>FDA stays the course on abortion pills, rejecting demands from the left and right</t>
-  </si>
-  <si>
-    <t>A silver lining to California’s storms</t>
-  </si>
-  <si>
-    <t>The forgotten ‘stolen’ election that poisoned politics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois House passes assault gun bill
+    <t>Chip woes short-circuit Samsung's best laid plans</t>
+  </si>
+  <si>
+    <t>India’s Vodafone stress test may have ugly results</t>
+  </si>
+  <si>
+    <t>Crypto bank run vindicates watchdogs’ vigilance</t>
+  </si>
+  <si>
+    <t>Amazon: it’s just like them</t>
+  </si>
+  <si>
+    <t>Stellantis keeps feet on ground in air taxi punt</t>
+  </si>
+  <si>
+    <t>EU is stuck playing catch-up with Amazon and Apple</t>
+  </si>
+  <si>
+    <t>Samsung, Nanoco settle patent dispute over LED TVs just before trial</t>
+  </si>
+  <si>
+    <t>Exclusive: TikTok freezes consultant hiring for U.S. security deal as opposition mounts</t>
+  </si>
+  <si>
+    <t>Law firm Goodwin Procter cuts lawyers and staff amid shrinking demand</t>
+  </si>
+  <si>
+    <t>Former U.S. Senator Burr says SEC has closed probe concerning him without action</t>
+  </si>
+  <si>
+    <t>S. Carolina court nixes 6-week abortion ban; Idaho judges uphold restrictions</t>
+  </si>
+  <si>
+    <t>Twitter hires law firm denounced by CEO Elon Musk</t>
+  </si>
+  <si>
+    <t>At least 29 killed in Mexico capture of Chapo's son; U.S. extradition not guaranteed, article with imageAmericascategory · January 6, 2023 · 5:05 PM UTC · undefined agoNineteen suspected gang members and 10 military personnel were killed in a wave of violence surrounding the arrest of Mexican drug cartel boss Ovidio Guzman in the northern state of Sinaloa, Defense Minister Luis Cresencio Sandoval said on Friday.</t>
+  </si>
+  <si>
+    <t>United StatescategoryU.S. House brawl over McCarthy raises worries about Republican governance, article with image11:07 AM UTC</t>
+  </si>
+  <si>
+    <t>EuropecategoryExclusive: Russian hackers targeted U.S. nuclear scientists, article with image4:47 PM UTC</t>
+  </si>
+  <si>
+    <t>GalleryAmericascategory'We threw ourselves to the floor': Mexican passenger plane caught in cartel crossfire, article with gallery5:54 AM UTC</t>
+  </si>
+  <si>
+    <t>GalleryAmericascategoryMexico captures son of 'El Chapo' sparking wave of violence, article with gallery8:37 AM UTC</t>
+  </si>
+  <si>
+    <t>GalleryEuropecategoryShells fly at Ukraine front despite Russia's claimed Christmas ceasefire, article with gallery4:57 PM UTC . Updated undefined ago</t>
+  </si>
+  <si>
+    <t>United StatescategoryMcCarthy predicts progress with Republicans in U.S. House leadership standoff, article with image5:25 PM UTC . Updated undefined ago</t>
+  </si>
+  <si>
+    <t>GalleryAmericascategoryMexican cartel leader dies in shootout after mass jail break, article with galleryJanuary 5, 2023</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/politics-united-states-house-of-representatives-kevin-mccarthy-us-republican-party-0938c7358f41c83759246f8949ac7c15</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/jan6-capitol-riots-second-anniversary-8014969520b61bf7f4d86689fc16e7f7</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/wildfires-climate-and-environment-pollution-fresno-us-environmental-protection-agency-6adbf4d1a2879530089b35a260ade6fe</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/politics-south-carolina-state-government-hilton-head-island-charleston-9f48c6c7668b7b9404a7a9335d3a195a</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/biden-politics-california-gavin-newsom-sacramento-91abbc21ec3a41e13c8b654058e22398</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/politics-mexico-immigration-af0643a4fb8f45388fe247e44c9b2c5e</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/politics-las-vegas-nevada-california-6ce78b413889d79041c1281f80110346</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/politics-indiana-eric-holcomb-909b78c74504b93f9bae4ca7d05ea7bb</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/biden-politics-mexico-united-states-government-70f9516a689fa26a41af184ec76e9527</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/politics-albuquerque-new-mexico-state-government-831e1d985a1795eea69ac6489f0698ed</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/fraud-park-city-7b2be37b6ef11f380077726c919ec9ef</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/religion-el-paso-mexico-immigration-shelters-c6a8684760041691c68b4c6b3274db96</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/politics-bakersfield-california-kevin-mccarthy-congress-5e355091d9f308b1b93a9faaec610d5a</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/politics-kansas-business-climate-and-environment-51bd4d855972c192e2c3d0187abb5f1e</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/legal-proceedings-fraud-crime-connecticut-texas-2c5bca5300b2bda02b60f6181632be6d</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/politics-united-states-government-mexico-drug-crimes-city-d74ba460138c067ca538c862e3f0a5b0</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/politics-health-china-government-philippines-89822deed22950db4e9b6c5e9c675414</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/china-covid19-data-sharing-77a28c2fc02f4c01774db8836762b608</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/prince-harry-book-details-ce879703cbc92372e4736313c6cab941</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/russia-ukraine-war-kremlin-ordered-truce-650d6c7930c80e61763a672d05757da8</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/prince-harry-afghanistan-service-claims-1c497d35a8211dc0366429856a539e2a</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/politics-south-sudan-government-3b5dd2a04c0dd11cf0f0098f24278ce8</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/romania-government-bucharest-business-crime-3458065c0350ec217a21c627f725272c</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/live/2023/01/06/us/house-speaker-vote-mccarthy</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/us/politics/mccarthy-house-speaker-republicans.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/interactive/2023/01/04/us/politics/house-speaker-vote-tally.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/live/2023/01/06/business/jobs-report-december-economy</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/live/2023/01/06/business/jobs-report-december-economy/jobs-december-sectors</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/business/markets-stocks-jobs-inflation.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/sports/football/damar-hamlin-bills-update.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/05/sports/football/damar-hamlin-response-audio-recording.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/us/idaho-killings-investigation.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/science/robots-artificial-intelligence-consciousness.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/us/politics/jan-6-capitol-riots-prosecutions.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/live/2023/01/06/world/russia-ukraine-news</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/live/2023/01/06/world/russia-ukraine-news/ukraine-says-recent-pledges-show-that-key-weapons-are-no-longer-taboo-for-its-allies</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/us/widen-highways-traffic.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/sports/basketball/donovan-mitchell-50-point-games.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/us/california-storms-trees.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/article/california-weather-forecast-rain-wind.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/interactive/2023/01/05/movies/critics-oscar-nominees-ballot.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/opinion/house-speaker-kevin-mccarthy.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/opinion/kruse-zelizer-myth-history.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/opinion/lgbtq-rights-activism-alabama.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/05/opinion/america-kevin-mccarthy-great.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/opinion/mentally-ill-new-york.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/opinion/ezra-klein-podcast-gary-marcus.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/opinion/afghanistan-family-war.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/opinion/pope-benedict-legacy.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/us/politics/drone-civilian-deaths-afghanistan.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/business/southwest-airlines-customer-costs.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/06/climate/epa-soot-pollution-biden.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/article/lottery-jackpots-history.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/interactive/2021/us/covid-cases.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2023/01/05/arts/design/columbia-business-school-diller-scofidio-renfro-kravis-geffen.html</t>
+  </si>
+  <si>
+    <t>https://theathletic.com/4046216/2023/01/06/colts-jim-irsay-jeff-saturday-frank-reich/</t>
+  </si>
+  <si>
+    <t>https://theathletic.com/4061905/2023/01/05/texas-chris-beard-firing/</t>
+  </si>
+  <si>
+    <t>https://theathletic.com/4060678/2023/01/06/ottawa-senators-sale-new-ownership/</t>
+  </si>
+  <si>
+    <t>https://subscriber.politicopro.com/article/2023/01/miami-democrats-face-internal-feud-after-disastrous-2022-midterms-00076758</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/newsletters/prescription-pulse/2023/01/06/decision-day-for-lecanemab-00076660</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/newsletters/the-long-game/2023/01/06/disasters-are-a-disability-issue-00076713</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/news/2023/01/06/a-capitol-window-smasher-and-pelosi-desk-squatter-go-to-trial-00076763</t>
+  </si>
+  <si>
+    <t>https://fda.agencyiq.com/article/2023/01/06/fda-advisers-to-discuss-over-the-counter-overdose-reversal-drug-00076750</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/video/2023/01/06/families-read-names-of-fallen-jan-6-officers-on-2-year-anniversary-of-capitol-riot-809087</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/newsletters/women-rule/2023/01/06/two-takes-on-the-transformation-of-elise-stefanik-00076742</t>
+  </si>
+  <si>
+    <t>https://subscriber.politicopro.com/article/2023/01/fourth-day-of-speaker-race-collides-with-jan-6-anniversary-00076738</t>
+  </si>
+  <si>
+    <t>https://subscriber.politicopro.com/article/2023/01/how-cannabis-impacts-other-chronic-pain-treatments-00076580</t>
+  </si>
+  <si>
+    <t>https://subscriber.politicopro.com/article/2023/01/white-house-issues-major-climate-change-guidance-00076743</t>
+  </si>
+  <si>
+    <t>https://subscriber.politicopro.com/article/2023/01/epa-releases-text-of-particulate-matter-proposal-00076755</t>
+  </si>
+  <si>
+    <t>https://subscriber.politicopro.com/article/2023/01/fda-advisers-to-discuss-over-the-counter-overdose-reversal-drug-00076750</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/news/2023/01/06/covid-cases-hospitalizations-spike-as-new-variant-gains-foothold-00076747</t>
+  </si>
+  <si>
+    <t>https://subscriber.politicopro.com/article/2023/01/covid-cases-hospitalizations-spike-as-new-variant-gains-foothold-00076747</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/news/2023/01/06/house-speaker-vote-day-4-00076738</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/video/2023/01/06/pentagon-bradley-fighting-vehicles-bring-firepower-and-armor-to-ukraine-809046</t>
+  </si>
+  <si>
+    <t>https://subscriber.politicopro.com/article/2023/01/epa-proposes-tighter-rule-to-cut-soot-pollution-00076533</t>
+  </si>
+  <si>
+    <t>https://subscriber.politicopro.com/eenews/article/eenews/2023/01/06/epa-tiptoes-to-tighter-soot-standards-00076561</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/newsletters/politico-pulse/2023/01/06/is-the-new-omicron-subvariant-cause-for-concern-00076705</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/newsletters/global-insider/2023/01/06/3-amigos-11-ballots-nothing-spared-00076727</t>
+  </si>
+  <si>
+    <t>https://www.reuters.com/breakingviews/</t>
+  </si>
+  <si>
+    <t>https://www.reuters.com/tags/patent/</t>
+  </si>
+  <si>
+    <t>https://www.reuters.com/technology/</t>
+  </si>
+  <si>
+    <t>https://www.reuters.com/tags/legal-industry/</t>
+  </si>
+  <si>
+    <t>https://www.reuters.com/world/</t>
+  </si>
+  <si>
+    <t>https://www.reuters.com/tags/technology/</t>
+  </si>
+  <si>
+    <t>https://www.reuters.comNone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ten of county party's 257 officials calling for statewide party to conduct an audit.
 </t>
   </si>
   <si>
-    <t>Exclusive: TikTok freezes hiring for U.S. security deal as opposition mounts, article with imageTechnologycategory · January 6, 2023 · 10:09 AM UTCTikTok has stopped a hiring process for consultants that would help it implement a potential security agreement with the United States, according to two people familiar with the matter, as opposition to such a deal among U.S. officials grows.</t>
-  </si>
-  <si>
-    <t>ChargedcategoryTesla slashes prices in China, other Asian markets as sales stumble, article with image4:13 PM UTC . Updated undefined ago</t>
-  </si>
-  <si>
-    <t>Macro MatterscategoryU.S. job growth solid in December; wage growth slows, article with image3:05 PM UTC</t>
-  </si>
-  <si>
-    <t>GalleryChargedcategoryExclusive: Renault considers making mass-market EVs in India -sources, article with gallery1:46 PM UTC</t>
-  </si>
-  <si>
-    <t>GalleryBusinesscategoryMixed emotions as McDonald's leaves Kazakhstan, article with gallery4:10 PM UTC . Updated undefined ago</t>
-  </si>
-  <si>
-    <t>GalleryTechnologycategoryU.S. securities regulator probes FTX investors' due diligence -sources, article with gallery5:59 AM UTC</t>
-  </si>
-  <si>
-    <t>MarketscategoryU.S. service sector contracts in December, price increases slow - ISM survey, article with image3:03 PM UTC</t>
-  </si>
-  <si>
-    <t>Exploration &amp; ProductioncategoryOil jumps on weaker U.S. dollar, jobs report, article with image3:01 PM UTC</t>
-  </si>
-  <si>
-    <t>TechnologycategoryExclusive: TikTok freezes hiring for U.S. security deal as opposition mounts, article with image10:09 AM UTC</t>
-  </si>
-  <si>
-    <t>TechnologycategoryWho is Alex Mashinsky, the man behind the alleged Celsius crypto fraud?, article with imageJanuary 5, 2023</t>
-  </si>
-  <si>
-    <t>DisruptedcategoryQualcomm, Iridium partner to bring satellite-based messaging to Android phones, article with imageJanuary 5, 2023</t>
-  </si>
-  <si>
-    <t>TechnologycategoryTwitter hacked, 200 million user email addresses leaked, researcher says, article with image1:52 AM UTC</t>
-  </si>
-  <si>
-    <t>World at WorkcategoryBig tech layoffs may further disrupt equity and diversity efforts, article with imageJanuary 5, 2023</t>
-  </si>
-  <si>
-    <t>WorldcategoryIran says it foiled cyberattack on central bank, article with image9:32 AM UTC</t>
-  </si>
-  <si>
-    <t>GalleryFuture of MoneycategoryCrypto firms off to rocky start in 2023 with outflows, layoffs and a lawsuit, article with galleryJanuary 5, 2023</t>
-  </si>
-  <si>
-    <t>TechnologycategoryWhatsApp announces new proxy support feature to bypass internet shutdowns, article with imageJanuary 5, 2023</t>
-  </si>
-  <si>
-    <t>At least 29 killed during Mexico capture of El Chapo's son, article with imageAmericascategory · January 6, 2023 · 3:39 PM UTC · undefined agoNineteen suspected gang members and 10 military personnel were killed in a wave of violence surrounding the arrest of Mexican drug cartel boss Ovidio Guzman in the northern state of Sinaloa, Defense Minister Luis Cresencio Sandoval said on Friday.</t>
-  </si>
-  <si>
-    <t>GalleryAmericascategoryMexico captures son of 'El Chapo' sparking wave of violence, article with gallery8:37 AM UTC</t>
-  </si>
-  <si>
-    <t>GalleryAmericascategory'We threw ourselves to the floor': Mexican passenger plane caught in cartel crossfire, article with gallery5:54 AM UTC</t>
-  </si>
-  <si>
-    <t>United StatescategoryU.S. House brawl over McCarthy raises worries about Republican governance, article with image11:07 AM UTC</t>
-  </si>
-  <si>
-    <t>EuropecategoryExclusive: Russian hackers targeted U.S. nuclear scientists, article with image2:47 PM UTC</t>
-  </si>
-  <si>
-    <t>GalleryEuropecategorySigns of fighting after Russia says unilateral truce comes into force in Ukraine, article with gallery2:28 PM UTC</t>
-  </si>
-  <si>
-    <t>GalleryEuropecategoryOld Nazi map sparks treasure hunt in the Netherlands, article with gallery11:27 AM UTC</t>
-  </si>
-  <si>
-    <t>GalleryAmericascategoryMexican cartel leader dies in shootout after mass jail break, article with galleryJanuary 5, 2023</t>
-  </si>
-  <si>
-    <t>https://www.politico.com/newsletters/women-rule/2023/01/06/two-takes-on-the-transformation-of-elise-stefanik-00076742</t>
-  </si>
-  <si>
-    <t>https://subscriber.politicopro.com/article/2023/01/fourth-day-of-speaker-race-collides-with-jan-6-anniversary-00076738</t>
-  </si>
-  <si>
-    <t>https://subscriber.politicopro.com/article/2023/01/how-cannabis-impacts-other-chronic-pain-treatments-00076580</t>
-  </si>
-  <si>
-    <t>https://subscriber.politicopro.com/article/2023/01/white-house-issues-major-climate-change-guidance-00076743</t>
-  </si>
-  <si>
-    <t>https://subscriber.politicopro.com/article/2023/01/epa-releases-text-of-particulate-matter-proposal-00076755</t>
-  </si>
-  <si>
-    <t>https://subscriber.politicopro.com/article/2023/01/fda-advisers-to-discuss-over-the-counter-overdose-reversal-drug-00076750</t>
-  </si>
-  <si>
-    <t>https://www.politico.com/news/2023/01/06/covid-cases-hospitalizations-spike-as-new-variant-gains-foothold-00076747</t>
-  </si>
-  <si>
-    <t>https://subscriber.politicopro.com/article/2023/01/covid-cases-hospitalizations-spike-as-new-variant-gains-foothold-00076747</t>
-  </si>
-  <si>
-    <t>https://www.politico.com/news/2023/01/06/house-speaker-vote-day-4-00076738</t>
-  </si>
-  <si>
-    <t>https://www.politico.com/video/2023/01/06/pentagon-bradley-fighting-vehicles-bring-firepower-and-armor-to-ukraine-809046</t>
-  </si>
-  <si>
-    <t>https://subscriber.politicopro.com/article/2023/01/epa-proposes-tighter-rule-to-cut-soot-pollution-00076533</t>
-  </si>
-  <si>
-    <t>https://subscriber.politicopro.com/eenews/article/eenews/2023/01/06/epa-tiptoes-to-tighter-soot-standards-00076561</t>
-  </si>
-  <si>
-    <t>https://www.politico.com/newsletters/politico-pulse/2023/01/06/is-the-new-omicron-subvariant-cause-for-concern-00076705</t>
-  </si>
-  <si>
-    <t>https://www.politico.com/newsletters/global-insider/2023/01/06/3-amigos-11-ballots-nothing-spared-00076727</t>
-  </si>
-  <si>
-    <t>https://www.politico.com/news/2023/01/06/us-hiring-stays-brisk-as-employers-add-223-000-jobs-00076734</t>
-  </si>
-  <si>
-    <t>https://fda.agencyiq.com/article/2023/01/06/new-letters-shed-light-on-death-in-alzheimers-drug-trial-00076433</t>
-  </si>
-  <si>
-    <t>https://fda.agencyiq.com/article/2023/01/06/fda-stays-the-course-on-abortion-pills-rejecting-demands-from-the-left-and-right-00076736</t>
-  </si>
-  <si>
-    <t>https://www.politico.com/newsletters/california-playbook/2023/01/06/a-silver-lining-to-californias-storms-00076726</t>
-  </si>
-  <si>
-    <t>https://www.politico.com/newsletters/politico-weekend/2023/01/06/the-forgotten-stolen-election-that-poisoned-politics-00076628</t>
-  </si>
-  <si>
-    <t>https://www.politico.com/newsletters/illinois-playbook/2023/01/06/a-green-light-for-illinois-red-flag-bill-00076730</t>
-  </si>
-  <si>
-    <t>https://www.reuters.comNone</t>
+    <t xml:space="preserve">Should lecanemab receive a green light from the FDA, it would be the second new Alzheimer’s therapy to come to market in two years.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advocates have been trying for years to draw attention to the harsh conditions that people with disabilities face after natural disasters. New federal data shows that the suffering is worse than anyone could have imagined.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two years after the ransacking of the Capitol, some of the highest profile defendants will finally face a jury.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two advisory committee groups will convene in February to discuss Emergent BioSolutions’ application for a nonprescription version of its naloxone nasal spray.
+</t>
   </si>
   <si>
     <t xml:space="preserve">The House is submerged in a different breed of gridlock two years to the day after a violent riot shook the Capitol.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Two advisory committee groups will convene in February to discuss Emergent BioSolutions’ application for a nonprescription version of its naloxone nasal spray.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covid cases are double from a month ago according to the CDC.
 </t>
   </si>
@@ -966,20 +1290,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The December job growth, though a decent gain, amounted to the lowest monthly increase in two years.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of the patients died after receiving treatment for a stroke, which occurred shortly after her third infusion of lecanemab.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Your petition does not provide any new data or evidence,” wrote FDA's Patrizia Cavazzoni.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 1984 race for Indiana’s ‘Bloody 8th’ trained a generation of politicians in the scorched-earth tactics of recounts. Its legacy lives on in Trump’s ‘stop the steal’ rhetoric.
-</t>
+    <t>01/06/23 12:17 PM EST</t>
+  </si>
+  <si>
+    <t>01/06/23 12:00 PM EST</t>
+  </si>
+  <si>
+    <t>01/06/23 11:54 AM EST</t>
+  </si>
+  <si>
+    <t>01/06/23 11:22 AM EST</t>
+  </si>
+  <si>
+    <t>01/06/23 11:14 AM EST</t>
   </si>
   <si>
     <t>01/06/23 11:09 AM EST</t>
@@ -1018,19 +1341,22 @@
     <t>01/06/23 09:30 AM EST</t>
   </si>
   <si>
-    <t>01/06/23 09:27 AM EST</t>
-  </si>
-  <si>
-    <t>01/06/23 09:24 AM EST</t>
-  </si>
-  <si>
-    <t>01/06/23 09:12 AM EST</t>
-  </si>
-  <si>
-    <t>01/06/23 09:06 AM EST</t>
-  </si>
-  <si>
-    <t>01/06/23 09:02 AM EST</t>
+    <t>3:31 AM UTC</t>
+  </si>
+  <si>
+    <t>3:22 AM UTC</t>
+  </si>
+  <si>
+    <t>4:25 PM UTC</t>
+  </si>
+  <si>
+    <t>4:27 PM UTC</t>
+  </si>
+  <si>
+    <t>4:08 PM UTC</t>
+  </si>
+  <si>
+    <t>12:41 AM UTC</t>
   </si>
   <si>
     <t>Op Ed</t>
@@ -1076,6 +1402,9 @@
 Link</t>
   </si>
   <si>
+    <t>DeSantis Shakes Up Leadership of Woke Florida College, Appoints Conservative Majority</t>
+  </si>
+  <si>
     <t>This Is How Congress Is Supposed to Be</t>
   </si>
   <si>
@@ -1088,9 +1417,6 @@
     <t>Texas AG Sues Biden Admin over New ‘Public Charge’ Rule for Immigrants</t>
   </si>
   <si>
-    <t>How Pope Benedict XVI Stood Up for Chinese Catholics</t>
-  </si>
-  <si>
     <t>American Democracy Is Still in Danger</t>
   </si>
   <si>
@@ -1157,6 +1483,9 @@
     <t>https://www.nytimes.com/2022/12/21/us/politics/zelensky-speech-transcript.html</t>
   </si>
   <si>
+    <t>https://www.nationalreview.com/news/desantis-shakes-up-leadership-of-woke-florida-college-appoints-conservative-majority/</t>
+  </si>
+  <si>
     <t>https://www.nationalreview.com/2023/01/this-is-how-congress-is-supposed-to-be/</t>
   </si>
   <si>
@@ -1169,9 +1498,6 @@
     <t>https://www.nationalreview.com/news/texas-ag-sues-biden-admin-over-new-public-charge-rule-for-immigrants/</t>
   </si>
   <si>
-    <t>https://www.nationalreview.com/2023/01/how-pope-benedict-xvi-stood-up-for-chinese-catholics/</t>
-  </si>
-  <si>
     <t>https://www.foreignaffairs.com/united-states/american-democracy-still-danger</t>
   </si>
   <si>
@@ -1220,13 +1546,19 @@
     <t>https://sinocism.com/p/chinas-political-discourse-november-bfd</t>
   </si>
   <si>
-    <t>in about 1 hour</t>
-  </si>
-  <si>
-    <t>36 minutes ago</t>
-  </si>
-  <si>
-    <t>about 3 hours ago</t>
+    <t>in 16 minutes</t>
+  </si>
+  <si>
+    <t>24 minutes ago</t>
+  </si>
+  <si>
+    <t>29 minutes ago</t>
+  </si>
+  <si>
+    <t>31 minutes ago</t>
+  </si>
+  <si>
+    <t>about 2 hours ago</t>
   </si>
   <si>
     <t>JANUARY 5, 2023</t>
@@ -1259,10 +1591,10 @@
     <t>October 25, 2022</t>
   </si>
   <si>
-    <t>1 hr ago</t>
-  </si>
-  <si>
-    <t>16 hr ago</t>
+    <t>3 hr ago</t>
+  </si>
+  <si>
+    <t>17 hr ago</t>
   </si>
   <si>
     <t>Jan 5</t>
@@ -1274,12 +1606,105 @@
     <t>Jan 3</t>
   </si>
   <si>
+    <t>AP Biz</t>
+  </si>
+  <si>
+    <t>AP Health</t>
+  </si>
+  <si>
+    <t>AP Science</t>
+  </si>
+  <si>
+    <t>AP Tech</t>
+  </si>
+  <si>
     <t>Ars Technica</t>
   </si>
   <si>
+    <t>Bloomberg</t>
+  </si>
+  <si>
+    <t>Reuters Biz</t>
+  </si>
+  <si>
+    <t>Reuters Tech</t>
+  </si>
+  <si>
+    <t>Cooler hiring and milder pay gains could aid inflation fight</t>
+  </si>
+  <si>
+    <t>Europe’s inflation slows again but cost of living still high</t>
+  </si>
+  <si>
+    <t>Best of CES 2023: Canine communication and a calming pillow</t>
+  </si>
+  <si>
+    <t>Global food prices in 2022 hit record high amid drought, war</t>
+  </si>
+  <si>
+    <t>Fuel leak in Virginia shuts down part of Colonial Pipeline</t>
+  </si>
+  <si>
+    <t>CES startups face cautious investors amid economic woes</t>
+  </si>
+  <si>
+    <t>German factory orders down sharply, contining trend</t>
+  </si>
+  <si>
+    <t>Southwest’s strong 2022 rebound soured by holiday debacle</t>
+  </si>
+  <si>
+    <t>Between battles, Ukraine’s soldiers have a place to recover</t>
+  </si>
+  <si>
+    <t>As COVID surges in China, US begins testing more travelers</t>
+  </si>
+  <si>
+    <t>Hong Kong to start reopening border with China on Sunday</t>
+  </si>
+  <si>
+    <t>South Carolina Supreme Court strikes down state abortion ban</t>
+  </si>
+  <si>
+    <t>California trying to find, compensate sterilization victims</t>
+  </si>
+  <si>
+    <t>Hawaii’s Kilauea volcano erupts again, summit crater glows</t>
+  </si>
+  <si>
+    <t>UK saw hottest-ever year in 2022 as Europe’s climate warms</t>
+  </si>
+  <si>
+    <t>Germany to draw up legislation to enable carbon storage</t>
+  </si>
+  <si>
+    <t>Best of CES 2023: Electric skates, pet tech and AI for birds</t>
+  </si>
+  <si>
+    <t>Looted ancient sarcophagus returned to Egypt from US</t>
+  </si>
+  <si>
+    <t>CES 2023: Ram electric pickup joins crowded field next year</t>
+  </si>
+  <si>
+    <t>CES 2023: Russian exhibitors barred from displaying tech</t>
+  </si>
+  <si>
+    <t>Russia’s hypersonic missile-armed ship to patrol global seas</t>
+  </si>
+  <si>
+    <t>Twitter says it will relax ban on political advertising</t>
+  </si>
+  <si>
     <t>Android Automotive goes mainstream: A review of GM’s new infotainment system</t>
   </si>
   <si>
+    <t>Climate enforcers need hard evidence, and Friederike Otto has it</t>
+  </si>
+  <si>
+    <t>Wikipedia admin jailed for 32 years after alleged Saudi spy infiltration</t>
+  </si>
+  <si>
     <t>Rocket Report: “Crisis” for European launch industry; Japan’s H3 rocket nears debut</t>
   </si>
   <si>
@@ -1298,15 +1723,168 @@
     <t>Ram shows off its first fully electric pickup truck at CES, due 2024</t>
   </si>
   <si>
-    <t>Razer’s $400 soundbar has a creepy camera to help emit surround sound</t>
-  </si>
-  <si>
-    <t>WhatsApp just made it harder to censor citizens with Internet shutdowns</t>
+    <t>McCarthy’s Speaker Proposal Tees Up $75 Billion Defense Cut</t>
+  </si>
+  <si>
+    <t>Fed Gets ‘Goldilocks’ in Jobs Report: Slower Wage Growth, Solid Hiring</t>
+  </si>
+  <si>
+    <t>Citi Agrees Deal for New European Headquarters in Dublin</t>
+  </si>
+  <si>
+    <t>Humira Competitors Have CVS Wrestling With Complex Calculations</t>
+  </si>
+  <si>
+    <t>CLO Managers Face Trading Crunch in Downturn</t>
+  </si>
+  <si>
+    <t>What South Africa’s ANC Decided at Its National Conference</t>
+  </si>
+  <si>
+    <t>Ivory Coast Sells $228 Million Stake in Orange Unit in Rare IPO</t>
+  </si>
+  <si>
+    <t>Salesforce Guts Tableau After Spending $15.7 Billion in 2019 Deal</t>
+  </si>
+  <si>
+    <t>US and Germany to Send Ukraine Armored Vehicles in Major Arms Upgrade</t>
+  </si>
+  <si>
+    <t>Morphe Brand Once Valued at $2 Billion Closing All US Stores</t>
+  </si>
+  <si>
+    <t>House Adjourns as McCarthy Blocked for 11th Time in Longest Fight Since 1859</t>
+  </si>
+  <si>
+    <t>Ukraine Latest: US, Germany Sending Armored Vehicles, Patriots</t>
+  </si>
+  <si>
+    <t>Exclusive: TikTok freezes consultant hiring for U.S. security deal as opposition mounts, article with imageTechnologycategory · January 6, 2023 · 4:27 PM UTCTikTok has put on hold a hiring process for consultants that would help it implement a potential security agreement with the United States, two people familiar with the matter said, as opposition to such a deal among U.S. officials grows.</t>
+  </si>
+  <si>
+    <t>ChargedcategoryTesla slashes prices in China, other Asian markets as sales stumble, article with image4:13 PM UTC</t>
+  </si>
+  <si>
+    <t>MarketscategoryWall St jumps as jobs, services data calm rate hike worries, article with image5:46 PM UTC . Updated undefined ago</t>
+  </si>
+  <si>
+    <t>TechnologycategoryGermany tells Musk it expects Twitter to fight disinformation, article with image2:48 PM UTC</t>
+  </si>
+  <si>
+    <t>Macro MatterscategoryU.S. job growth solid in December; wage growth slows, article with image3:05 PM UTC</t>
+  </si>
+  <si>
+    <t>BusinesscategoryWWE confirms former chief Vince McMahon's return to board, article with image3:36 PM UTC</t>
+  </si>
+  <si>
+    <t>GalleryChargedcategoryExclusive: Renault considers making mass-market EVs in India -sources, article with gallery1:46 PM UTC</t>
+  </si>
+  <si>
+    <t>MarketscategoryU.S. service sector contracts in December, price increases slow, ISM survey says, article with image3:03 PM UTC</t>
+  </si>
+  <si>
+    <t>TechnologycategoryExclusive: TikTok freezes consultant hiring for U.S. security deal as opposition mounts, article with image4:27 PM UTC</t>
+  </si>
+  <si>
+    <t>TechnologycategoryWho is Alex Mashinsky, the man behind the alleged Celsius crypto fraud?, article with imageJanuary 5, 2023</t>
+  </si>
+  <si>
+    <t>DisruptedcategoryQualcomm, Iridium partner to bring satellite-based messaging to Android phones, article with imageJanuary 5, 2023</t>
+  </si>
+  <si>
+    <t>TechnologycategoryTwitter hacked, 200 million user email addresses leaked, researcher says, article with image1:52 AM UTC</t>
+  </si>
+  <si>
+    <t>World at WorkcategoryBig tech layoffs may further disrupt equity and diversity efforts, article with imageJanuary 5, 2023</t>
+  </si>
+  <si>
+    <t>WorldcategoryIran says it foiled cyberattack on central bank, article with image9:32 AM UTC</t>
+  </si>
+  <si>
+    <t>GalleryFuture of MoneycategoryCrypto firms off to rocky start in 2023 with outflows, layoffs and a lawsuit, article with galleryJanuary 5, 2023</t>
+  </si>
+  <si>
+    <t>TechnologycategoryWhatsApp announces new proxy support feature to bypass internet shutdowns, article with imageJanuary 5, 2023</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/us-jobs-report-jan6-2023-78943d9829087d93e9681426ca0c8ae2</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/russia-ukraine-inflation-europe-european-union-business-d49abaf7eddad2e6e6f4fdca90363adb</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/ces2023-best-of-jan6-9d127822b54184e6c4d8313368667dc0</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/russia-ukraine-inflation-health-business-climate-and-environment-00539505ec5db37de5877137b9febeb8</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/virginia-georgia-danville-783ec3d64a5959239a04ac860d4c831a</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/technology-business-consumer-electronics-show-amazoncom-inc-las-vegas-922d89322aa44bb3f136fb9541a5b5bc</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/germany-europe-business-economy-3528e6100e922f26028bdf12ef759c0d</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/southwest-airlines-co-business-dallas-8d822c36934c0ed4fb17bd6447750050</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/politics-health-russia-ukraine-war-europe-kharkiv-d753058815c977005ad97048ed76b811</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/health-covid-19-pandemic-china-centers-for-disease-control-and-prevention-7c3102cee2961a2f5b9e41f286597eb3</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/health-hong-kong-china-business-92256ba215e8163100ea8e7c892684cf</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/abortion-politics-health-south-carolina-state-government-6cd1469dbb550c70b64a30f183be203c</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/politics-health-california-state-government-prisons-b560ec0a0155d8cc13730310e1073d9d</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/volcanoes-kilauea-hawaii-national-park-climate-and-environment-0e6f2d682db1fc6bfb2bbcc47ef6d10d</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/weather-climate-and-environment-european-union-europe-252cbc366a76291f18b5081ae0b9f18b</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/science-germany-climate-and-environment-business-f3d97d0d521d2dbbb707931c8ad097fd</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/technology-science-business-sony-corp-consumer-electronics-show-fa9a53988c69f56439866b7ecd301505</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/science-politics-egypt-government-manhattan-21fe41acdce6ba04b8183c0cda9afa3f</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/technology-business-consumer-electronics-show-amazoncom-inc-las-vegas-922d89322aa44bb3f136fb9541a5b5bc?utm_source=apnews&amp;utm_medium=featuredcard&amp;utm_campaign=leadstory</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/technology-consumer-electronics-show-business-e07cf8b5210b86eb1e98a4f679b4fd68</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/technology-consumer-electronics-show-gary-shapiro-business-577ffe6f49dd7f53a1415d690583001f</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/putin-technology-politics-russia-government-561c5501aeb8f3ae40af1789ec237103</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/elon-musk-technology-social-media-jack-dorsey-business-205324882cd3997cb187a369321012de</t>
   </si>
   <si>
     <t>https://arstechnica.com/gadgets/2023/01/android-automotive-goes-mainstream-a-review-of-gms-new-infotainment-system/</t>
   </si>
   <si>
+    <t>https://arstechnica.com/science/2023/01/climate-enforcers-need-hard-evidence-and-friederike-otto-has-it/</t>
+  </si>
+  <si>
+    <t>https://arstechnica.com/tech-policy/2023/01/wikipedia-admin-jailed-for-32-years-after-alleged-saudi-spy-infiltration/</t>
+  </si>
+  <si>
     <t>https://arstechnica.com/science/2023/01/rocket-report-crisis-for-european-launch-industry-japans-h3-rocket-nears-debut/</t>
   </si>
   <si>
@@ -1325,10 +1903,40 @@
     <t>https://arstechnica.com/cars/2023/01/ram-shows-off-its-first-fully-electric-pickup-truck-at-ces-due-2024/</t>
   </si>
   <si>
-    <t>https://arstechnica.com/gadgets/2023/01/razers-400-soundbar-has-a-creepy-camera-to-help-emit-surround-sound/</t>
-  </si>
-  <si>
-    <t>https://arstechnica.com/tech-policy/2023/01/whatsapp-now-provides-proxy-support-to-millions-impacted-by-internet-shutdowns/</t>
+    <t>https://www.bloomberg.com/news/articles/2023-01-06/mccarthy-s-emerging-speaker-deal-tees-up-75-billion-defense-cut?srnd=premium</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2023-01-06/fed-gets-goldilocks-in-jobs-report-slower-wage-growth-solid-hiring?srnd=premium</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2023-01-06/citi-agrees-deal-for-new-european-headquarters-in-dublin?srnd=premium</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2023-01-06/abbvie-abbv-humira-biosimilars-require-complex-math-from-cvs?srnd=premium</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2023-01-06/clo-managers-face-squeeze-structured-weekly?srnd=premium</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2023-01-06/what-south-africa-s-anc-decided-at-its-national-conference?srnd=premium</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2023-01-06/ivory-coast-sells-228-million-stake-in-orange-unit-in-rare-ipo?srnd=premium</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2023-01-05/salesforce-crm-guts-tableau-after-spending-15-7-billion-in-2019-deal</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2023-01-05/us-and-germany-will-send-ukraine-armored-vehicles-in-a-major-arms-upgrade</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2023-01-05/morphe-stores-closing-after-failed-bet-on-jeffree-star-james-charles</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2023-01-05/mccarthy-for-house-speaker-dealmaking-with-gop-rebels-in-day-three</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2023-01-05/ukraine-latest-allies-hear-kyiv-s-plea-for-armored-vehicles</t>
   </si>
   <si>
     <t>Jan 6, 2023</t>
@@ -1702,7 +2310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1742,13 +2350,13 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1762,13 +2370,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1782,10 +2390,10 @@
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1799,10 +2407,10 @@
         <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1816,10 +2424,10 @@
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1833,10 +2441,10 @@
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1850,10 +2458,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1867,10 +2475,10 @@
         <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1884,10 +2492,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1901,10 +2509,10 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1918,10 +2526,10 @@
         <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1935,10 +2543,10 @@
         <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1952,10 +2560,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1969,10 +2577,10 @@
         <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F15" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1986,10 +2594,10 @@
         <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F16" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2003,10 +2611,10 @@
         <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F17" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2020,10 +2628,10 @@
         <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2037,10 +2645,10 @@
         <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2054,10 +2662,10 @@
         <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F20" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2071,10 +2679,10 @@
         <v>46</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F21" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2088,10 +2696,10 @@
         <v>47</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2105,10 +2713,10 @@
         <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2122,10 +2730,10 @@
         <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2139,10 +2747,10 @@
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2156,10 +2764,10 @@
         <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2173,10 +2781,10 @@
         <v>52</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2190,10 +2798,10 @@
         <v>53</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F28" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2207,10 +2815,10 @@
         <v>54</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F29" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2224,10 +2832,10 @@
         <v>55</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F30" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2235,16 +2843,16 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2252,444 +2860,429 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
         <v>59</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F34" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F35" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>61</v>
       </c>
-      <c r="D36" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" t="s">
-        <v>203</v>
+      <c r="D36" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="F36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
         <v>62</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="F37" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="F38" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>64</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>65</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F40" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>152</v>
+      <c r="D41" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" t="s">
+        <v>217</v>
       </c>
       <c r="F41" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>67</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F42" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F43" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E44" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F44" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" t="s">
-        <v>205</v>
-      </c>
-      <c r="G45" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>163</v>
+      </c>
+      <c r="F45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
         <v>71</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="F46" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E47" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F47" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
         <v>73</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E48" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F48" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F49" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
         <v>75</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E50" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F50" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
         <v>76</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E51" t="s">
-        <v>208</v>
-      </c>
-      <c r="F51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>219</v>
+      </c>
+      <c r="G51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
         <v>77</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E52" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F52" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E53" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F53" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
         <v>79</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E54" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F54" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2700,16 +3293,16 @@
         <v>80</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E55" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F55" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2720,118 +3313,136 @@
         <v>81</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F56" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
         <v>82</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
+      </c>
+      <c r="E57" t="s">
+        <v>222</v>
       </c>
       <c r="F57" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
         <v>83</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
+      </c>
+      <c r="E58" t="s">
+        <v>223</v>
       </c>
       <c r="F58" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
         <v>84</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+      <c r="E59" t="s">
+        <v>224</v>
       </c>
       <c r="F59" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
         <v>85</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
+      </c>
+      <c r="E60" t="s">
+        <v>225</v>
       </c>
       <c r="F60" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
         <v>86</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
+      </c>
+      <c r="E61" t="s">
+        <v>226</v>
       </c>
       <c r="F61" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
         <v>87</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
+      </c>
+      <c r="E62" t="s">
+        <v>227</v>
       </c>
       <c r="F62" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2842,13 +3453,13 @@
         <v>88</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F63" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2859,10 +3470,10 @@
         <v>89</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F64" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2876,10 +3487,10 @@
         <v>90</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F65" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2887,19 +3498,16 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s">
-        <v>177</v>
-      </c>
-      <c r="E66" t="s">
-        <v>214</v>
+        <v>91</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="F66" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2907,19 +3515,16 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E67" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="F67" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2927,19 +3532,16 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E68" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="F68" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2947,19 +3549,16 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E69" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F69" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2967,19 +3566,16 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E70" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F70" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2987,19 +3583,16 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E71" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F71" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3007,19 +3600,19 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>183</v>
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>190</v>
       </c>
       <c r="E72" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="F72" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3027,19 +3620,19 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E73" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F73" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3047,19 +3640,19 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E74" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F74" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3067,19 +3660,19 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E75" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3093,13 +3686,13 @@
         <v>99</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E76" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F76" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3113,13 +3706,13 @@
         <v>100</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E77" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F77" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3133,13 +3726,13 @@
         <v>101</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E78" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F78" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3153,13 +3746,13 @@
         <v>102</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E79" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F79" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3167,19 +3760,19 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C80" t="s">
         <v>103</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E80" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F80" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3187,19 +3780,19 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C81" t="s">
         <v>104</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E81" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F81" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3207,19 +3800,19 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C82" t="s">
         <v>105</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E82" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F82" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3227,19 +3820,19 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C83" t="s">
         <v>106</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E83" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F83" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3247,19 +3840,19 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
         <v>107</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E84" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F84" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3267,19 +3860,19 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C85" t="s">
         <v>108</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E85" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F85" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3287,19 +3880,19 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C86" t="s">
         <v>109</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E86" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F86" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3313,13 +3906,13 @@
         <v>110</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E87" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F87" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3333,13 +3926,13 @@
         <v>111</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E88" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F88" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3353,13 +3946,153 @@
         <v>112</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E89" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F89" t="s">
-        <v>233</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" t="s">
+        <v>113</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E90" t="s">
+        <v>218</v>
+      </c>
+      <c r="F90" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" t="s">
+        <v>114</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E91" t="s">
+        <v>218</v>
+      </c>
+      <c r="F91" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E92" t="s">
+        <v>218</v>
+      </c>
+      <c r="F92" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" t="s">
+        <v>116</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E93" t="s">
+        <v>218</v>
+      </c>
+      <c r="F93" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" t="s">
+        <v>117</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E94" t="s">
+        <v>218</v>
+      </c>
+      <c r="F94" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" t="s">
+        <v>118</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E95" t="s">
+        <v>218</v>
+      </c>
+      <c r="F95" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" t="s">
+        <v>119</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E96" t="s">
+        <v>218</v>
+      </c>
+      <c r="F96" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3398,11 +4131,11 @@
     <hyperlink ref="D33" r:id="rId32"/>
     <hyperlink ref="D34" r:id="rId33"/>
     <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D37" r:id="rId35"/>
-    <hyperlink ref="D38" r:id="rId36"/>
-    <hyperlink ref="D39" r:id="rId37"/>
-    <hyperlink ref="D40" r:id="rId38"/>
-    <hyperlink ref="D41" r:id="rId39"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
     <hyperlink ref="D42" r:id="rId40"/>
     <hyperlink ref="D43" r:id="rId41"/>
     <hyperlink ref="D44" r:id="rId42"/>
@@ -3427,12 +4160,12 @@
     <hyperlink ref="D63" r:id="rId61"/>
     <hyperlink ref="D64" r:id="rId62"/>
     <hyperlink ref="D65" r:id="rId63"/>
-    <hyperlink ref="D67" r:id="rId64"/>
-    <hyperlink ref="D68" r:id="rId65"/>
-    <hyperlink ref="D69" r:id="rId66"/>
-    <hyperlink ref="D70" r:id="rId67"/>
-    <hyperlink ref="D71" r:id="rId68"/>
-    <hyperlink ref="D72" r:id="rId69"/>
+    <hyperlink ref="D66" r:id="rId64"/>
+    <hyperlink ref="D67" r:id="rId65"/>
+    <hyperlink ref="D68" r:id="rId66"/>
+    <hyperlink ref="D69" r:id="rId67"/>
+    <hyperlink ref="D70" r:id="rId68"/>
+    <hyperlink ref="D71" r:id="rId69"/>
     <hyperlink ref="D73" r:id="rId70"/>
     <hyperlink ref="D74" r:id="rId71"/>
     <hyperlink ref="D75" r:id="rId72"/>
@@ -3450,6 +4183,13 @@
     <hyperlink ref="D87" r:id="rId84"/>
     <hyperlink ref="D88" r:id="rId85"/>
     <hyperlink ref="D89" r:id="rId86"/>
+    <hyperlink ref="D90" r:id="rId87"/>
+    <hyperlink ref="D91" r:id="rId88"/>
+    <hyperlink ref="D92" r:id="rId89"/>
+    <hyperlink ref="D93" r:id="rId90"/>
+    <hyperlink ref="D94" r:id="rId91"/>
+    <hyperlink ref="D95" r:id="rId92"/>
+    <hyperlink ref="D96" r:id="rId93"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3457,7 +4197,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3485,858 +4225,1774 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>281</v>
+        <v>320</v>
+      </c>
+      <c r="E2" t="s">
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>312</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
-        <v>312</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>283</v>
+        <v>322</v>
+      </c>
+      <c r="E4" t="s">
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>284</v>
+        <v>323</v>
+      </c>
+      <c r="E5" t="s">
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>314</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>285</v>
+        <v>324</v>
+      </c>
+      <c r="E6" t="s">
+        <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>315</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="E7" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>316</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="E8" t="s">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="E9" t="s">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="F9" t="s">
-        <v>318</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="E10" t="s">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>319</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>290</v>
+        <v>328</v>
+      </c>
+      <c r="E11" t="s">
+        <v>218</v>
       </c>
       <c r="F11" t="s">
-        <v>320</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="E12" t="s">
-        <v>305</v>
+        <v>218</v>
       </c>
       <c r="F12" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C13" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="E13" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="F13" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="E14" t="s">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="F14" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>294</v>
+        <v>332</v>
+      </c>
+      <c r="E15" t="s">
+        <v>218</v>
       </c>
       <c r="F15" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C16" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="E16" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="F16" t="s">
-        <v>324</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="E17" t="s">
-        <v>309</v>
+        <v>218</v>
       </c>
       <c r="F17" t="s">
-        <v>324</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C18" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="E18" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="F18" t="s">
-        <v>325</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C19" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>298</v>
+        <v>336</v>
+      </c>
+      <c r="E19" t="s">
+        <v>218</v>
       </c>
       <c r="F19" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C20" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="E20" t="s">
-        <v>311</v>
+        <v>218</v>
       </c>
       <c r="F20" t="s">
-        <v>327</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C21" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>300</v>
+        <v>338</v>
+      </c>
+      <c r="E21" t="s">
+        <v>218</v>
       </c>
       <c r="F21" t="s">
-        <v>328</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C22" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F22" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C23" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F23" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C24" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="E24" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C25" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="E25" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C26" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E26" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C27" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E27" t="s">
-        <v>204</v>
+        <v>344</v>
       </c>
       <c r="F27" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E28" t="s">
-        <v>204</v>
+        <v>345</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
-      </c>
-      <c r="C29" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E29" t="s">
-        <v>204</v>
+        <v>346</v>
       </c>
       <c r="F29" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s">
-        <v>237</v>
-      </c>
-      <c r="C30" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E30" t="s">
-        <v>204</v>
+        <v>347</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s">
-        <v>237</v>
-      </c>
-      <c r="C31" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E31" t="s">
-        <v>204</v>
+        <v>348</v>
       </c>
       <c r="F31" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
-      </c>
-      <c r="C32" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E32" t="s">
-        <v>204</v>
+        <v>349</v>
       </c>
       <c r="F32" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B33" t="s">
-        <v>237</v>
-      </c>
-      <c r="C33" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E33" t="s">
-        <v>204</v>
+        <v>350</v>
       </c>
       <c r="F33" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
-      </c>
-      <c r="C34" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E34" t="s">
-        <v>204</v>
+        <v>351</v>
       </c>
       <c r="F34" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s">
-        <v>237</v>
-      </c>
-      <c r="C35" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E35" t="s">
-        <v>204</v>
+        <v>352</v>
       </c>
       <c r="F35" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
-      </c>
-      <c r="C36" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E36" t="s">
-        <v>204</v>
+        <v>353</v>
       </c>
       <c r="F36" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s">
-        <v>237</v>
-      </c>
-      <c r="C37" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E37" t="s">
-        <v>204</v>
+        <v>354</v>
       </c>
       <c r="F37" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C38" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E38" t="s">
-        <v>204</v>
+        <v>355</v>
       </c>
       <c r="F38" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B39" t="s">
-        <v>238</v>
-      </c>
-      <c r="C39" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E39" t="s">
-        <v>204</v>
+        <v>356</v>
       </c>
       <c r="F39" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B40" t="s">
-        <v>238</v>
-      </c>
-      <c r="C40" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E40" t="s">
-        <v>204</v>
+        <v>357</v>
       </c>
       <c r="F40" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B41" t="s">
-        <v>238</v>
-      </c>
-      <c r="C41" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E41" t="s">
-        <v>204</v>
+        <v>358</v>
       </c>
       <c r="F41" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B42" t="s">
-        <v>238</v>
-      </c>
-      <c r="C42" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E42" t="s">
-        <v>204</v>
+        <v>359</v>
       </c>
       <c r="F42" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s">
-        <v>238</v>
-      </c>
-      <c r="C43" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E43" t="s">
-        <v>204</v>
+        <v>360</v>
       </c>
       <c r="F43" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B44" t="s">
-        <v>238</v>
-      </c>
-      <c r="C44" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E44" t="s">
-        <v>204</v>
+        <v>361</v>
       </c>
       <c r="F44" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B45" t="s">
-        <v>238</v>
-      </c>
-      <c r="C45" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F48" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>248</v>
+      </c>
+      <c r="B51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F51" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F53" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F54" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>248</v>
+      </c>
+      <c r="B55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>248</v>
+      </c>
+      <c r="B56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F56" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>248</v>
+      </c>
+      <c r="B57" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F57" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" t="s">
+        <v>252</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59" t="s">
+        <v>252</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F59" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" t="s">
+        <v>252</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F60" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F61" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62" t="s">
+        <v>253</v>
+      </c>
+      <c r="C62" t="s">
+        <v>283</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E62" t="s">
+        <v>405</v>
+      </c>
+      <c r="F62" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>248</v>
+      </c>
+      <c r="B63" t="s">
+        <v>253</v>
+      </c>
+      <c r="C63" t="s">
+        <v>284</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E63" t="s">
+        <v>406</v>
+      </c>
+      <c r="F63" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>248</v>
+      </c>
+      <c r="B64" t="s">
+        <v>253</v>
+      </c>
+      <c r="C64" t="s">
+        <v>285</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E64" t="s">
+        <v>407</v>
+      </c>
+      <c r="F64" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" t="s">
+        <v>253</v>
+      </c>
+      <c r="C65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" t="s">
+        <v>408</v>
+      </c>
+      <c r="F65" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>248</v>
+      </c>
+      <c r="B66" t="s">
+        <v>253</v>
+      </c>
+      <c r="C66" t="s">
+        <v>287</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E66" t="s">
+        <v>409</v>
+      </c>
+      <c r="F66" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>248</v>
+      </c>
+      <c r="B67" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" t="s">
+        <v>288</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F67" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>248</v>
+      </c>
+      <c r="B68" t="s">
+        <v>253</v>
+      </c>
+      <c r="C68" t="s">
+        <v>289</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F68" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B69" t="s">
+        <v>253</v>
+      </c>
+      <c r="C69" t="s">
+        <v>290</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E69" t="s">
+        <v>410</v>
+      </c>
+      <c r="F69" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>248</v>
+      </c>
+      <c r="B70" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" t="s">
+        <v>291</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F70" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>248</v>
+      </c>
+      <c r="B71" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" t="s">
+        <v>292</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F71" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>248</v>
+      </c>
+      <c r="B72" t="s">
+        <v>253</v>
+      </c>
+      <c r="C72" t="s">
+        <v>293</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F72" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" t="s">
+        <v>287</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E73" t="s">
+        <v>409</v>
+      </c>
+      <c r="F73" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>248</v>
+      </c>
+      <c r="B74" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" t="s">
+        <v>294</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E74" t="s">
+        <v>411</v>
+      </c>
+      <c r="F74" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>248</v>
+      </c>
+      <c r="B75" t="s">
+        <v>253</v>
+      </c>
+      <c r="C75" t="s">
+        <v>294</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E75" t="s">
+        <v>411</v>
+      </c>
+      <c r="F75" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" t="s">
+        <v>253</v>
+      </c>
+      <c r="C76" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E76" t="s">
+        <v>410</v>
+      </c>
+      <c r="F76" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>248</v>
+      </c>
+      <c r="B77" t="s">
+        <v>253</v>
+      </c>
+      <c r="C77" t="s">
+        <v>295</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F77" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" t="s">
+        <v>253</v>
+      </c>
+      <c r="C78" t="s">
+        <v>296</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E78" t="s">
+        <v>412</v>
+      </c>
+      <c r="F78" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" t="s">
+        <v>297</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E79" t="s">
+        <v>413</v>
+      </c>
+      <c r="F79" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>248</v>
+      </c>
+      <c r="B80" t="s">
+        <v>253</v>
+      </c>
+      <c r="C80" t="s">
+        <v>298</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E80" t="s">
+        <v>414</v>
+      </c>
+      <c r="F80" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>248</v>
+      </c>
+      <c r="B81" t="s">
+        <v>253</v>
+      </c>
+      <c r="C81" t="s">
+        <v>299</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F81" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>248</v>
+      </c>
+      <c r="B82" t="s">
+        <v>254</v>
+      </c>
+      <c r="C82" t="s">
+        <v>300</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E82" t="s">
+        <v>218</v>
+      </c>
+      <c r="F82" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>248</v>
+      </c>
+      <c r="B83" t="s">
+        <v>254</v>
+      </c>
+      <c r="C83" t="s">
         <v>301</v>
       </c>
-      <c r="E45" t="s">
-        <v>204</v>
-      </c>
-      <c r="F45" t="s">
-        <v>226</v>
+      <c r="D83" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E83" t="s">
+        <v>218</v>
+      </c>
+      <c r="F83" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>248</v>
+      </c>
+      <c r="B84" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84" t="s">
+        <v>302</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E84" t="s">
+        <v>218</v>
+      </c>
+      <c r="F84" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>248</v>
+      </c>
+      <c r="B85" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" t="s">
+        <v>303</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E85" t="s">
+        <v>218</v>
+      </c>
+      <c r="F85" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>248</v>
+      </c>
+      <c r="B86" t="s">
+        <v>254</v>
+      </c>
+      <c r="C86" t="s">
+        <v>304</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E86" t="s">
+        <v>218</v>
+      </c>
+      <c r="F86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" t="s">
+        <v>254</v>
+      </c>
+      <c r="C87" t="s">
+        <v>305</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E87" t="s">
+        <v>218</v>
+      </c>
+      <c r="F87" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>248</v>
+      </c>
+      <c r="B88" t="s">
+        <v>255</v>
+      </c>
+      <c r="C88" t="s">
+        <v>306</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E88" t="s">
+        <v>218</v>
+      </c>
+      <c r="F88" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>248</v>
+      </c>
+      <c r="B89" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" t="s">
+        <v>307</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E89" t="s">
+        <v>218</v>
+      </c>
+      <c r="F89" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>248</v>
+      </c>
+      <c r="B90" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" t="s">
+        <v>308</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E90" t="s">
+        <v>218</v>
+      </c>
+      <c r="F90" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" t="s">
+        <v>309</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E91" t="s">
+        <v>218</v>
+      </c>
+      <c r="F91" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>248</v>
+      </c>
+      <c r="B92" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" t="s">
+        <v>310</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E92" t="s">
+        <v>218</v>
+      </c>
+      <c r="F92" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>248</v>
+      </c>
+      <c r="B93" t="s">
+        <v>255</v>
+      </c>
+      <c r="C93" t="s">
+        <v>311</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E93" t="s">
+        <v>218</v>
+      </c>
+      <c r="F93" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>248</v>
+      </c>
+      <c r="B94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C94" t="s">
+        <v>312</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E94" t="s">
+        <v>218</v>
+      </c>
+      <c r="F94" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B95" t="s">
+        <v>256</v>
+      </c>
+      <c r="C95" t="s">
+        <v>313</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E95" t="s">
+        <v>218</v>
+      </c>
+      <c r="F95" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>248</v>
+      </c>
+      <c r="B96" t="s">
+        <v>256</v>
+      </c>
+      <c r="C96" t="s">
+        <v>314</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E96" t="s">
+        <v>218</v>
+      </c>
+      <c r="F96" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>248</v>
+      </c>
+      <c r="B97" t="s">
+        <v>256</v>
+      </c>
+      <c r="C97" t="s">
+        <v>315</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E97" t="s">
+        <v>218</v>
+      </c>
+      <c r="F97" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>248</v>
+      </c>
+      <c r="B98" t="s">
+        <v>256</v>
+      </c>
+      <c r="C98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E98" t="s">
+        <v>218</v>
+      </c>
+      <c r="F98" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>248</v>
+      </c>
+      <c r="B99" t="s">
+        <v>256</v>
+      </c>
+      <c r="C99" t="s">
+        <v>317</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E99" t="s">
+        <v>218</v>
+      </c>
+      <c r="F99" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>248</v>
+      </c>
+      <c r="B100" t="s">
+        <v>256</v>
+      </c>
+      <c r="C100" t="s">
+        <v>318</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E100" t="s">
+        <v>218</v>
+      </c>
+      <c r="F100" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>248</v>
+      </c>
+      <c r="B101" t="s">
+        <v>256</v>
+      </c>
+      <c r="C101" t="s">
+        <v>319</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E101" t="s">
+        <v>218</v>
+      </c>
+      <c r="F101" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4385,6 +6041,62 @@
     <hyperlink ref="D43" r:id="rId42"/>
     <hyperlink ref="D44" r:id="rId43"/>
     <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4420,495 +6132,495 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B2" t="s">
-        <v>330</v>
+        <v>439</v>
       </c>
       <c r="C2" t="s">
-        <v>335</v>
+        <v>444</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>362</v>
+        <v>471</v>
       </c>
       <c r="F2" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>439</v>
       </c>
       <c r="C3" t="s">
-        <v>336</v>
+        <v>445</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="F3" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>439</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
+        <v>446</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>364</v>
+        <v>473</v>
       </c>
       <c r="F4" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>439</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
+        <v>447</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>365</v>
+        <v>474</v>
       </c>
       <c r="F5" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B6" t="s">
-        <v>330</v>
+        <v>439</v>
       </c>
       <c r="C6" t="s">
-        <v>339</v>
+        <v>448</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>366</v>
+        <v>475</v>
       </c>
       <c r="F6" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B7" t="s">
-        <v>330</v>
+        <v>439</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>449</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>367</v>
+        <v>476</v>
       </c>
       <c r="F7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>439</v>
       </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>450</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>368</v>
+        <v>477</v>
       </c>
       <c r="F8" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B9" t="s">
-        <v>330</v>
+        <v>439</v>
       </c>
       <c r="C9" t="s">
-        <v>342</v>
+        <v>451</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>369</v>
+        <v>478</v>
       </c>
       <c r="F9" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B10" t="s">
-        <v>331</v>
+        <v>440</v>
       </c>
       <c r="C10" t="s">
-        <v>343</v>
+        <v>452</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>370</v>
+        <v>479</v>
       </c>
       <c r="F10" t="s">
-        <v>391</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>440</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>453</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>371</v>
+        <v>480</v>
       </c>
       <c r="F11" t="s">
-        <v>391</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B12" t="s">
-        <v>331</v>
+        <v>440</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>454</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>372</v>
+        <v>481</v>
       </c>
       <c r="F12" t="s">
-        <v>391</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B13" t="s">
-        <v>331</v>
+        <v>440</v>
       </c>
       <c r="C13" t="s">
-        <v>346</v>
+        <v>455</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>373</v>
+        <v>482</v>
       </c>
       <c r="F13" t="s">
-        <v>392</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B14" t="s">
-        <v>331</v>
+        <v>440</v>
       </c>
       <c r="C14" t="s">
-        <v>347</v>
+        <v>456</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>374</v>
+        <v>483</v>
       </c>
       <c r="F14" t="s">
-        <v>393</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>441</v>
       </c>
       <c r="C15" t="s">
-        <v>348</v>
+        <v>457</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>375</v>
+        <v>484</v>
       </c>
       <c r="F15" t="s">
-        <v>394</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>441</v>
       </c>
       <c r="C16" t="s">
-        <v>348</v>
+        <v>457</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>376</v>
+        <v>485</v>
       </c>
       <c r="F16" t="s">
-        <v>394</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
+        <v>441</v>
       </c>
       <c r="C17" t="s">
-        <v>348</v>
+        <v>457</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>377</v>
+        <v>486</v>
       </c>
       <c r="F17" t="s">
-        <v>395</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B18" t="s">
-        <v>333</v>
+        <v>442</v>
       </c>
       <c r="C18" t="s">
-        <v>349</v>
+        <v>458</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>378</v>
+        <v>487</v>
       </c>
       <c r="F18" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B19" t="s">
-        <v>333</v>
+        <v>442</v>
       </c>
       <c r="C19" t="s">
-        <v>350</v>
+        <v>459</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>379</v>
+        <v>488</v>
       </c>
       <c r="F19" t="s">
-        <v>397</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B20" t="s">
-        <v>333</v>
+        <v>442</v>
       </c>
       <c r="C20" t="s">
-        <v>351</v>
+        <v>460</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>380</v>
+        <v>489</v>
       </c>
       <c r="F20" t="s">
-        <v>398</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B21" t="s">
-        <v>333</v>
+        <v>442</v>
       </c>
       <c r="C21" t="s">
-        <v>352</v>
+        <v>461</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>381</v>
+        <v>490</v>
       </c>
       <c r="F21" t="s">
-        <v>399</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B22" t="s">
-        <v>333</v>
+        <v>442</v>
       </c>
       <c r="C22" t="s">
-        <v>353</v>
+        <v>462</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>382</v>
+        <v>491</v>
       </c>
       <c r="F22" t="s">
-        <v>400</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B23" t="s">
-        <v>333</v>
+        <v>442</v>
       </c>
       <c r="C23" t="s">
-        <v>354</v>
+        <v>463</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>383</v>
+        <v>492</v>
       </c>
       <c r="F23" t="s">
-        <v>401</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B24" t="s">
-        <v>333</v>
+        <v>442</v>
       </c>
       <c r="C24" t="s">
-        <v>355</v>
+        <v>464</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>384</v>
+        <v>493</v>
       </c>
       <c r="F24" t="s">
-        <v>402</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B25" t="s">
-        <v>333</v>
+        <v>442</v>
       </c>
       <c r="C25" t="s">
-        <v>356</v>
+        <v>465</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>385</v>
+        <v>494</v>
       </c>
       <c r="F25" t="s">
-        <v>403</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B26" t="s">
-        <v>334</v>
+        <v>443</v>
       </c>
       <c r="C26" t="s">
-        <v>357</v>
+        <v>466</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>386</v>
+        <v>495</v>
       </c>
       <c r="F26" t="s">
-        <v>404</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B27" t="s">
-        <v>334</v>
+        <v>443</v>
       </c>
       <c r="C27" t="s">
-        <v>358</v>
+        <v>467</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>387</v>
+        <v>496</v>
       </c>
       <c r="F27" t="s">
-        <v>405</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B28" t="s">
-        <v>334</v>
+        <v>443</v>
       </c>
       <c r="C28" t="s">
-        <v>359</v>
+        <v>468</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>388</v>
+        <v>497</v>
       </c>
       <c r="F28" t="s">
-        <v>406</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B29" t="s">
-        <v>334</v>
+        <v>443</v>
       </c>
       <c r="C29" t="s">
-        <v>360</v>
+        <v>469</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>389</v>
+        <v>498</v>
       </c>
       <c r="F29" t="s">
-        <v>407</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="B30" t="s">
-        <v>334</v>
+        <v>443</v>
       </c>
       <c r="C30" t="s">
-        <v>361</v>
+        <v>470</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>390</v>
+        <v>499</v>
       </c>
       <c r="F30" t="s">
-        <v>408</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -4949,7 +6661,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4977,155 +6689,1439 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>409</v>
+        <v>520</v>
       </c>
       <c r="C2" t="s">
-        <v>410</v>
+        <v>528</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>419</v>
+        <v>587</v>
+      </c>
+      <c r="E2" t="s">
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>428</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>520</v>
       </c>
       <c r="C3" t="s">
-        <v>411</v>
+        <v>529</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>420</v>
+        <v>588</v>
+      </c>
+      <c r="E3" t="s">
+        <v>218</v>
       </c>
       <c r="F3" t="s">
-        <v>428</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>520</v>
       </c>
       <c r="C4" t="s">
-        <v>412</v>
+        <v>530</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>421</v>
+        <v>589</v>
+      </c>
+      <c r="E4" t="s">
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>428</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
-        <v>409</v>
+        <v>520</v>
       </c>
       <c r="C5" t="s">
-        <v>413</v>
+        <v>531</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>422</v>
+        <v>590</v>
+      </c>
+      <c r="E5" t="s">
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
-        <v>409</v>
+        <v>520</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>532</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>423</v>
+        <v>591</v>
+      </c>
+      <c r="E6" t="s">
+        <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>409</v>
+        <v>520</v>
       </c>
       <c r="C7" t="s">
-        <v>415</v>
+        <v>533</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>424</v>
+        <v>592</v>
+      </c>
+      <c r="E7" t="s">
+        <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
-        <v>409</v>
+        <v>520</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>534</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>425</v>
+        <v>593</v>
+      </c>
+      <c r="E8" t="s">
+        <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
-        <v>409</v>
+        <v>520</v>
       </c>
       <c r="C9" t="s">
-        <v>417</v>
+        <v>535</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>426</v>
+        <v>594</v>
+      </c>
+      <c r="E9" t="s">
+        <v>218</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B10" t="s">
-        <v>409</v>
+        <v>521</v>
       </c>
       <c r="C10" t="s">
-        <v>418</v>
+        <v>274</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>427</v>
+        <v>337</v>
+      </c>
+      <c r="E10" t="s">
+        <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" t="s">
+        <v>521</v>
+      </c>
+      <c r="C11" t="s">
+        <v>536</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C12" t="s">
+        <v>537</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" t="s">
+        <v>521</v>
+      </c>
+      <c r="C13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" t="s">
+        <v>521</v>
+      </c>
+      <c r="C14" t="s">
+        <v>531</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C15" t="s">
+        <v>538</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" t="s">
+        <v>521</v>
+      </c>
+      <c r="C16" t="s">
+        <v>539</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" t="s">
+        <v>521</v>
+      </c>
+      <c r="C17" t="s">
+        <v>540</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E17" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" t="s">
+        <v>522</v>
+      </c>
+      <c r="C18" t="s">
+        <v>541</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" t="s">
+        <v>522</v>
+      </c>
+      <c r="C19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E19" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" t="s">
+        <v>522</v>
+      </c>
+      <c r="C20" t="s">
+        <v>542</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E20" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" t="s">
+        <v>522</v>
+      </c>
+      <c r="C21" t="s">
+        <v>543</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" t="s">
+        <v>522</v>
+      </c>
+      <c r="C22" t="s">
+        <v>537</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E22" t="s">
+        <v>218</v>
+      </c>
+      <c r="F22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" t="s">
+        <v>522</v>
+      </c>
+      <c r="C23" t="s">
+        <v>544</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" t="s">
+        <v>522</v>
+      </c>
+      <c r="C24" t="s">
+        <v>545</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E24" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" t="s">
+        <v>523</v>
+      </c>
+      <c r="C25" t="s">
+        <v>533</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E25" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26" t="s">
+        <v>523</v>
+      </c>
+      <c r="C26" t="s">
+        <v>533</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E26" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" t="s">
+        <v>523</v>
+      </c>
+      <c r="C27" t="s">
+        <v>533</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" t="s">
+        <v>523</v>
+      </c>
+      <c r="C28" t="s">
+        <v>530</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" t="s">
+        <v>523</v>
+      </c>
+      <c r="C29" t="s">
+        <v>546</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" t="s">
+        <v>523</v>
+      </c>
+      <c r="C30" t="s">
+        <v>547</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" t="s">
+        <v>523</v>
+      </c>
+      <c r="C31" t="s">
+        <v>548</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E31" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32" t="s">
+        <v>523</v>
+      </c>
+      <c r="C32" t="s">
+        <v>549</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" t="s">
+        <v>524</v>
+      </c>
+      <c r="C33" t="s">
+        <v>550</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F33" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" t="s">
+        <v>524</v>
+      </c>
+      <c r="C34" t="s">
+        <v>551</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F34" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35" t="s">
+        <v>524</v>
+      </c>
+      <c r="C35" t="s">
+        <v>552</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F35" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" t="s">
+        <v>524</v>
+      </c>
+      <c r="C36" t="s">
+        <v>553</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F36" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>248</v>
+      </c>
+      <c r="B37" t="s">
+        <v>524</v>
+      </c>
+      <c r="C37" t="s">
+        <v>554</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="F37" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>248</v>
+      </c>
+      <c r="B38" t="s">
+        <v>524</v>
+      </c>
+      <c r="C38" t="s">
+        <v>555</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>248</v>
+      </c>
+      <c r="B39" t="s">
+        <v>524</v>
+      </c>
+      <c r="C39" t="s">
+        <v>556</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40" t="s">
+        <v>524</v>
+      </c>
+      <c r="C40" t="s">
+        <v>557</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="F40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41" t="s">
+        <v>524</v>
+      </c>
+      <c r="C41" t="s">
+        <v>558</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>248</v>
+      </c>
+      <c r="B42" t="s">
+        <v>525</v>
+      </c>
+      <c r="C42" t="s">
+        <v>559</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="F42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" t="s">
+        <v>525</v>
+      </c>
+      <c r="C43" t="s">
+        <v>560</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="F43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>248</v>
+      </c>
+      <c r="B44" t="s">
+        <v>525</v>
+      </c>
+      <c r="C44" t="s">
+        <v>561</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="F44" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>248</v>
+      </c>
+      <c r="B45" t="s">
+        <v>525</v>
+      </c>
+      <c r="C45" t="s">
+        <v>562</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="F45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" t="s">
+        <v>525</v>
+      </c>
+      <c r="C46" t="s">
+        <v>563</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="F46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" t="s">
+        <v>525</v>
+      </c>
+      <c r="C47" t="s">
+        <v>564</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" t="s">
+        <v>525</v>
+      </c>
+      <c r="C48" t="s">
+        <v>565</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F48" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" t="s">
+        <v>525</v>
+      </c>
+      <c r="C49" t="s">
+        <v>566</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" t="s">
+        <v>525</v>
+      </c>
+      <c r="C50" t="s">
+        <v>567</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="F50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>248</v>
+      </c>
+      <c r="B51" t="s">
+        <v>525</v>
+      </c>
+      <c r="C51" t="s">
+        <v>568</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F51" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" t="s">
+        <v>525</v>
+      </c>
+      <c r="C52" t="s">
+        <v>569</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53" t="s">
+        <v>525</v>
+      </c>
+      <c r="C53" t="s">
+        <v>570</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F53" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" t="s">
+        <v>525</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="F54" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>248</v>
+      </c>
+      <c r="B55" t="s">
+        <v>525</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="F55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>248</v>
+      </c>
+      <c r="B56" t="s">
+        <v>525</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="F56" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>248</v>
+      </c>
+      <c r="B57" t="s">
+        <v>525</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F57" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" t="s">
+        <v>525</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59" t="s">
+        <v>525</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F59" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" t="s">
+        <v>525</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="F60" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" t="s">
+        <v>525</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F61" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62" t="s">
+        <v>525</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F62" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>248</v>
+      </c>
+      <c r="B63" t="s">
+        <v>525</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F63" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>248</v>
+      </c>
+      <c r="B64" t="s">
+        <v>526</v>
+      </c>
+      <c r="C64" t="s">
+        <v>571</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E64" t="s">
+        <v>218</v>
+      </c>
+      <c r="F64" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" t="s">
+        <v>526</v>
+      </c>
+      <c r="C65" t="s">
+        <v>572</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E65" t="s">
+        <v>218</v>
+      </c>
+      <c r="F65" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>248</v>
+      </c>
+      <c r="B66" t="s">
+        <v>526</v>
+      </c>
+      <c r="C66" t="s">
+        <v>573</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E66" t="s">
+        <v>218</v>
+      </c>
+      <c r="F66" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>248</v>
+      </c>
+      <c r="B67" t="s">
+        <v>526</v>
+      </c>
+      <c r="C67" t="s">
+        <v>574</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E67" t="s">
+        <v>218</v>
+      </c>
+      <c r="F67" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>248</v>
+      </c>
+      <c r="B68" t="s">
+        <v>526</v>
+      </c>
+      <c r="C68" t="s">
+        <v>575</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E68" t="s">
+        <v>218</v>
+      </c>
+      <c r="F68" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B69" t="s">
+        <v>526</v>
+      </c>
+      <c r="C69" t="s">
+        <v>576</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E69" t="s">
+        <v>218</v>
+      </c>
+      <c r="F69" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>248</v>
+      </c>
+      <c r="B70" t="s">
+        <v>526</v>
+      </c>
+      <c r="C70" t="s">
+        <v>577</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E70" t="s">
+        <v>218</v>
+      </c>
+      <c r="F70" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>248</v>
+      </c>
+      <c r="B71" t="s">
+        <v>526</v>
+      </c>
+      <c r="C71" t="s">
+        <v>578</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E71" t="s">
+        <v>218</v>
+      </c>
+      <c r="F71" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>248</v>
+      </c>
+      <c r="B72" t="s">
+        <v>527</v>
+      </c>
+      <c r="C72" t="s">
+        <v>579</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E72" t="s">
+        <v>218</v>
+      </c>
+      <c r="F72" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73" t="s">
+        <v>527</v>
+      </c>
+      <c r="C73" t="s">
+        <v>580</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E73" t="s">
+        <v>218</v>
+      </c>
+      <c r="F73" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>248</v>
+      </c>
+      <c r="B74" t="s">
+        <v>527</v>
+      </c>
+      <c r="C74" t="s">
+        <v>581</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E74" t="s">
+        <v>218</v>
+      </c>
+      <c r="F74" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>248</v>
+      </c>
+      <c r="B75" t="s">
+        <v>527</v>
+      </c>
+      <c r="C75" t="s">
+        <v>582</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E75" t="s">
+        <v>218</v>
+      </c>
+      <c r="F75" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" t="s">
+        <v>527</v>
+      </c>
+      <c r="C76" t="s">
+        <v>583</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E76" t="s">
+        <v>218</v>
+      </c>
+      <c r="F76" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>248</v>
+      </c>
+      <c r="B77" t="s">
+        <v>527</v>
+      </c>
+      <c r="C77" t="s">
+        <v>584</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E77" t="s">
+        <v>218</v>
+      </c>
+      <c r="F77" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" t="s">
+        <v>527</v>
+      </c>
+      <c r="C78" t="s">
+        <v>585</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E78" t="s">
+        <v>218</v>
+      </c>
+      <c r="F78" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" t="s">
+        <v>527</v>
+      </c>
+      <c r="C79" t="s">
+        <v>586</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E79" t="s">
+        <v>218</v>
+      </c>
+      <c r="F79" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5139,6 +8135,75 @@
     <hyperlink ref="D8" r:id="rId7"/>
     <hyperlink ref="D9" r:id="rId8"/>
     <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
